--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code-hub\Visual studio\Desktop\GymManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC51142-C580-474C-8E9E-3A62A600CC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7E4A5D-58CE-4553-A403-43003412EA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -453,10 +454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A2:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,6 +483,10 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code-hub\Visual studio\Desktop\GymManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7E4A5D-58CE-4553-A403-43003412EA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1244F9-DEEE-4FD6-8E0A-B579AE9F4A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
